--- a/smoc-admin-ui/src/main/resources/static/files/templates/message_daily.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/templates/message_daily.xlsx
@@ -24,7 +24,7 @@
     <t>{date}</t>
   </si>
   <si>
-    <t>总成功提交数</t>
+    <t>提交运营商总数</t>
   </si>
   <si>
     <t>{successSubmitNum}</t>
@@ -72,7 +72,7 @@
     <t>客户提交数</t>
   </si>
   <si>
-    <t>成功提交数</t>
+    <t>成功提交运营商数</t>
   </si>
   <si>
     <t xml:space="preserve"> 成功发送数</t>
@@ -128,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -187,9 +187,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,8 +209,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,15 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +249,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -246,38 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -287,23 +302,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,7 +311,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,7 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,19 +352,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,163 +520,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,17 +658,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,48 +693,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,151 +722,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1063,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11753215" y="114300"/>
+          <a:off x="11905615" y="114300"/>
           <a:ext cx="1710055" cy="463550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1366,12 +1366,12 @@
   <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.625" style="1" customWidth="1"/>

--- a/smoc-admin-ui/src/main/resources/static/files/templates/message_daily.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/templates/message_daily.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="发送量汇总" sheetId="1" r:id="rId1"/>
@@ -129,8 +129,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -188,45 +188,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,6 +203,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,26 +223,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -293,11 +262,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,9 +309,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,13 +330,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -352,181 +352,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,30 +658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -714,10 +690,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -728,6 +711,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,11 +741,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,10 +761,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,133 +773,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,55 +1025,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>475615</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>900253</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>264107</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11905615" y="114300"/>
-          <a:ext cx="1710055" cy="463550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2652,7 +2603,6 @@
   <pageMargins left="0.708661417322835" right="0.708661417322835" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/smoc-admin-ui/src/main/resources/static/files/templates/message_daily.xlsx
+++ b/smoc-admin-ui/src/main/resources/static/files/templates/message_daily.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">发送量汇总!$A$1:$G$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">发送量汇总!$A$1:$H$85</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>{date}</t>
   </si>
@@ -69,6 +69,9 @@
     <t>运营商</t>
   </si>
   <si>
+    <t>地域</t>
+  </si>
+  <si>
     <t>客户提交数</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
   </si>
   <si>
     <t>{.carrier}</t>
+  </si>
+  <si>
+    <t>{.areaCode}</t>
   </si>
   <si>
     <t>{.customerSubmitNum}</t>
@@ -128,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -188,14 +194,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,7 +215,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +260,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -257,13 +278,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,7 +309,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,22 +324,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,11 +694,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,32 +727,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -755,16 +741,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,133 +779,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -951,16 +957,16 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1314,10 +1320,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1328,16 +1334,16 @@
     <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.75" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="7" max="8" width="17.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1" spans="1:12">
+    <row r="1" ht="24.75" customHeight="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1352,8 +1358,9 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
-    </row>
-    <row r="2" ht="25.5" customHeight="1" spans="1:12">
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" ht="25.5" customHeight="1" spans="1:13">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1366,8 +1373,9 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-    </row>
-    <row r="3" ht="24.75" customHeight="1" spans="1:12">
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" ht="24.75" customHeight="1" spans="1:13">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1392,12 +1400,12 @@
       <c r="H3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" ht="24.75" customHeight="1" spans="1:12">
+      <c r="L3" s="11"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" ht="24.75" customHeight="1" spans="1:13">
       <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
@@ -1411,9 +1419,10 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
-      <c r="L4" s="20"/>
-    </row>
-    <row r="5" ht="27" customHeight="1" spans="1:12">
+      <c r="L4" s="13"/>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:13">
       <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
@@ -1435,7 +1444,7 @@
       <c r="G5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="7" t="s">
@@ -1450,46 +1459,52 @@
       <c r="L5" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" ht="21.75" customHeight="1" spans="1:12">
+      <c r="M5" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="21.75" customHeight="1" spans="1:13">
       <c r="A6" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="J6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="L6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="23" customHeight="1" spans="1:13">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -1497,13 +1512,14 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-    </row>
-    <row r="8" ht="23" customHeight="1" spans="1:12">
+      <c r="H7" s="16"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" ht="23" customHeight="1" spans="1:13">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1511,13 +1527,14 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-    </row>
-    <row r="9" ht="23" customHeight="1" spans="1:12">
+      <c r="H8" s="16"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" ht="23" customHeight="1" spans="1:13">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1525,13 +1542,14 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" ht="23" customHeight="1" spans="1:12">
+      <c r="H9" s="16"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" ht="23" customHeight="1" spans="1:13">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1539,13 +1557,14 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" ht="23" customHeight="1" spans="1:12">
+      <c r="H10" s="16"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" ht="23" customHeight="1" spans="1:13">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1553,13 +1572,14 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-    </row>
-    <row r="12" ht="23" customHeight="1" spans="1:12">
+      <c r="H11" s="16"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" ht="23" customHeight="1" spans="1:13">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1567,13 +1587,14 @@
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" ht="23" customHeight="1" spans="1:12">
+      <c r="H12" s="16"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" ht="23" customHeight="1" spans="1:13">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1581,13 +1602,14 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" ht="23" customHeight="1" spans="1:12">
+      <c r="H13" s="16"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" ht="23" customHeight="1" spans="1:13">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -1595,13 +1617,14 @@
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-    </row>
-    <row r="15" ht="23" customHeight="1" spans="1:12">
+      <c r="H14" s="16"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" ht="23" customHeight="1" spans="1:13">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -1609,13 +1632,14 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-    </row>
-    <row r="16" ht="23" customHeight="1" spans="1:12">
+      <c r="H15" s="16"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" ht="23" customHeight="1" spans="1:13">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1623,13 +1647,14 @@
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-    </row>
-    <row r="17" ht="23" customHeight="1" spans="1:12">
+      <c r="H16" s="16"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" ht="23" customHeight="1" spans="1:13">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1637,13 +1662,14 @@
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" ht="23" customHeight="1" spans="1:12">
+      <c r="H17" s="16"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" ht="23" customHeight="1" spans="1:13">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1651,13 +1677,14 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" ht="23" customHeight="1" spans="1:12">
+      <c r="H18" s="16"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" ht="23" customHeight="1" spans="1:13">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1665,13 +1692,14 @@
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-    </row>
-    <row r="20" ht="23" customHeight="1" spans="1:12">
+      <c r="H19" s="16"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" ht="23" customHeight="1" spans="1:13">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -1679,13 +1707,14 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-    </row>
-    <row r="21" ht="23" customHeight="1" spans="1:12">
+      <c r="H20" s="16"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" ht="23" customHeight="1" spans="1:13">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -1693,13 +1722,14 @@
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-    </row>
-    <row r="22" ht="23" customHeight="1" spans="1:12">
+      <c r="H21" s="16"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" ht="23" customHeight="1" spans="1:13">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -1707,13 +1737,14 @@
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-    </row>
-    <row r="23" ht="23" customHeight="1" spans="1:12">
+      <c r="H22" s="16"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" ht="23" customHeight="1" spans="1:13">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -1721,13 +1752,14 @@
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-    </row>
-    <row r="24" ht="23" customHeight="1" spans="1:12">
+      <c r="H23" s="16"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" ht="23" customHeight="1" spans="1:13">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -1735,13 +1767,14 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-    </row>
-    <row r="25" ht="23" customHeight="1" spans="1:12">
+      <c r="H24" s="16"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+    </row>
+    <row r="25" ht="23" customHeight="1" spans="1:13">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -1749,13 +1782,14 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-    </row>
-    <row r="26" ht="23" customHeight="1" spans="1:12">
+      <c r="H25" s="16"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" ht="23" customHeight="1" spans="1:13">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -1763,13 +1797,14 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-    </row>
-    <row r="27" ht="23" customHeight="1" spans="1:12">
+      <c r="H26" s="16"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" ht="23" customHeight="1" spans="1:13">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -1777,13 +1812,14 @@
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-    </row>
-    <row r="28" ht="23" customHeight="1" spans="1:12">
+      <c r="H27" s="16"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" ht="23" customHeight="1" spans="1:13">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -1791,13 +1827,14 @@
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-    </row>
-    <row r="29" ht="23" customHeight="1" spans="1:12">
+      <c r="H28" s="16"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" ht="23" customHeight="1" spans="1:13">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -1805,13 +1842,14 @@
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="16"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-    </row>
-    <row r="30" ht="23" customHeight="1" spans="1:12">
+      <c r="H29" s="16"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+    </row>
+    <row r="30" ht="23" customHeight="1" spans="1:13">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -1819,13 +1857,14 @@
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="16"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-    </row>
-    <row r="31" ht="23" customHeight="1" spans="1:12">
+      <c r="H30" s="16"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+    </row>
+    <row r="31" ht="23" customHeight="1" spans="1:13">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -1833,13 +1872,14 @@
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="16"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-    </row>
-    <row r="32" ht="23" customHeight="1" spans="1:12">
+      <c r="H31" s="16"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" ht="23" customHeight="1" spans="1:13">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -1847,13 +1887,14 @@
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="16"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-    </row>
-    <row r="33" ht="23" customHeight="1" spans="1:12">
+      <c r="H32" s="16"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+    </row>
+    <row r="33" ht="23" customHeight="1" spans="1:13">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -1861,13 +1902,14 @@
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="16"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-    </row>
-    <row r="34" ht="23" customHeight="1" spans="1:12">
+      <c r="H33" s="16"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" ht="23" customHeight="1" spans="1:13">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -1875,13 +1917,14 @@
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-    </row>
-    <row r="35" ht="23" customHeight="1" spans="1:12">
+      <c r="H34" s="16"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" ht="23" customHeight="1" spans="1:13">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -1889,13 +1932,14 @@
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-    </row>
-    <row r="36" ht="23" customHeight="1" spans="1:12">
+      <c r="H35" s="16"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="36" ht="23" customHeight="1" spans="1:13">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -1903,13 +1947,14 @@
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-    </row>
-    <row r="37" ht="23" customHeight="1" spans="1:12">
+      <c r="H36" s="16"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+    </row>
+    <row r="37" ht="23" customHeight="1" spans="1:13">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
@@ -1917,13 +1962,14 @@
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-    </row>
-    <row r="38" ht="23" customHeight="1" spans="1:12">
+      <c r="H37" s="16"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+    </row>
+    <row r="38" ht="23" customHeight="1" spans="1:13">
       <c r="A38" s="15"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -1931,13 +1977,14 @@
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="16"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-    </row>
-    <row r="39" ht="23" customHeight="1" spans="1:12">
+      <c r="H38" s="16"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+    </row>
+    <row r="39" ht="23" customHeight="1" spans="1:13">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -1945,13 +1992,14 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="16"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-    </row>
-    <row r="40" ht="23" customHeight="1" spans="1:12">
+      <c r="H39" s="16"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+    </row>
+    <row r="40" ht="23" customHeight="1" spans="1:13">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -1959,13 +2007,14 @@
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="16"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-    </row>
-    <row r="41" ht="25" customHeight="1" spans="1:12">
+      <c r="H40" s="16"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+    </row>
+    <row r="41" ht="25" customHeight="1" spans="1:13">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -1973,13 +2022,14 @@
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="16"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-    </row>
-    <row r="42" ht="25" customHeight="1" spans="1:12">
+      <c r="H41" s="16"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+    </row>
+    <row r="42" ht="25" customHeight="1" spans="1:13">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -1987,13 +2037,14 @@
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="16"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-    </row>
-    <row r="43" ht="25" customHeight="1" spans="1:12">
+      <c r="H42" s="16"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+    </row>
+    <row r="43" ht="25" customHeight="1" spans="1:13">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -2001,13 +2052,14 @@
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="16"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-    </row>
-    <row r="44" ht="25" customHeight="1" spans="1:12">
+      <c r="H43" s="16"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+    </row>
+    <row r="44" ht="25" customHeight="1" spans="1:13">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -2015,13 +2067,14 @@
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="16"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-    </row>
-    <row r="45" ht="25" customHeight="1" spans="1:12">
+      <c r="H44" s="16"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+    </row>
+    <row r="45" ht="25" customHeight="1" spans="1:13">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -2029,13 +2082,14 @@
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="16"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-    </row>
-    <row r="46" ht="25" customHeight="1" spans="1:12">
+      <c r="H45" s="16"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+    </row>
+    <row r="46" ht="25" customHeight="1" spans="1:13">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -2043,13 +2097,14 @@
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="16"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-    </row>
-    <row r="47" ht="25" customHeight="1" spans="1:12">
+      <c r="H46" s="16"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+    </row>
+    <row r="47" ht="25" customHeight="1" spans="1:13">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -2057,13 +2112,14 @@
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="16"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-    </row>
-    <row r="48" ht="25" customHeight="1" spans="1:12">
+      <c r="H47" s="16"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+    </row>
+    <row r="48" ht="25" customHeight="1" spans="1:13">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -2071,13 +2127,14 @@
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="16"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-    </row>
-    <row r="49" ht="25" customHeight="1" spans="1:12">
+      <c r="H48" s="16"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+    </row>
+    <row r="49" ht="25" customHeight="1" spans="1:13">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -2085,13 +2142,14 @@
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="16"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-    </row>
-    <row r="50" ht="25" customHeight="1" spans="1:12">
+      <c r="H49" s="16"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+    </row>
+    <row r="50" ht="25" customHeight="1" spans="1:13">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -2099,13 +2157,14 @@
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="16"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-    </row>
-    <row r="51" ht="25" customHeight="1" spans="1:12">
+      <c r="H50" s="16"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+    </row>
+    <row r="51" ht="25" customHeight="1" spans="1:13">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -2113,13 +2172,14 @@
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="16"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-    </row>
-    <row r="52" ht="25" customHeight="1" spans="1:12">
+      <c r="H51" s="16"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+    </row>
+    <row r="52" ht="25" customHeight="1" spans="1:13">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -2127,13 +2187,14 @@
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="16"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-    </row>
-    <row r="53" ht="25" customHeight="1" spans="1:12">
+      <c r="H52" s="16"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+    </row>
+    <row r="53" ht="25" customHeight="1" spans="1:13">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -2141,13 +2202,14 @@
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="16"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-    </row>
-    <row r="54" ht="25" customHeight="1" spans="1:12">
+      <c r="H53" s="16"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+    </row>
+    <row r="54" ht="25" customHeight="1" spans="1:13">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -2155,13 +2217,14 @@
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="16"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-    </row>
-    <row r="55" ht="25" customHeight="1" spans="1:12">
+      <c r="H54" s="16"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+    </row>
+    <row r="55" ht="25" customHeight="1" spans="1:13">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -2169,13 +2232,14 @@
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="16"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-    </row>
-    <row r="56" ht="25" customHeight="1" spans="1:12">
+      <c r="H55" s="16"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+    </row>
+    <row r="56" ht="25" customHeight="1" spans="1:13">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -2183,13 +2247,14 @@
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="16"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-    </row>
-    <row r="57" ht="25" customHeight="1" spans="1:12">
+      <c r="H56" s="16"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+    </row>
+    <row r="57" ht="25" customHeight="1" spans="1:13">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -2197,13 +2262,14 @@
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="16"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-    </row>
-    <row r="58" ht="25" customHeight="1" spans="1:12">
+      <c r="H57" s="16"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+    </row>
+    <row r="58" ht="25" customHeight="1" spans="1:13">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -2211,13 +2277,14 @@
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="16"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-    </row>
-    <row r="59" ht="25" customHeight="1" spans="1:12">
+      <c r="H58" s="16"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+    </row>
+    <row r="59" ht="25" customHeight="1" spans="1:13">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -2225,13 +2292,14 @@
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="16"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-    </row>
-    <row r="60" ht="25" customHeight="1" spans="1:12">
+      <c r="H59" s="16"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+    </row>
+    <row r="60" ht="25" customHeight="1" spans="1:13">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -2239,13 +2307,14 @@
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="16"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-    </row>
-    <row r="61" ht="25" customHeight="1" spans="1:12">
+      <c r="H60" s="16"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+    </row>
+    <row r="61" ht="25" customHeight="1" spans="1:13">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -2253,13 +2322,14 @@
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="16"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-    </row>
-    <row r="62" ht="25" customHeight="1" spans="1:12">
+      <c r="H61" s="16"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+    </row>
+    <row r="62" ht="25" customHeight="1" spans="1:13">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -2267,13 +2337,14 @@
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="16"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-    </row>
-    <row r="63" ht="25" customHeight="1" spans="1:12">
+      <c r="H62" s="16"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+    </row>
+    <row r="63" ht="25" customHeight="1" spans="1:13">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -2281,13 +2352,14 @@
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="16"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-    </row>
-    <row r="64" ht="25" customHeight="1" spans="1:12">
+      <c r="H63" s="16"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+    </row>
+    <row r="64" ht="25" customHeight="1" spans="1:13">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -2295,13 +2367,14 @@
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="16"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-    </row>
-    <row r="65" ht="25" customHeight="1" spans="1:12">
+      <c r="H64" s="16"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+    </row>
+    <row r="65" ht="25" customHeight="1" spans="1:13">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -2309,13 +2382,14 @@
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="16"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-    </row>
-    <row r="66" ht="25" customHeight="1" spans="1:12">
+      <c r="H65" s="16"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+    </row>
+    <row r="66" ht="25" customHeight="1" spans="1:13">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -2323,13 +2397,14 @@
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="16"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-    </row>
-    <row r="67" ht="25" customHeight="1" spans="1:12">
+      <c r="H66" s="16"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+    </row>
+    <row r="67" ht="25" customHeight="1" spans="1:13">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -2337,13 +2412,14 @@
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="16"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-    </row>
-    <row r="68" ht="25" customHeight="1" spans="1:12">
+      <c r="H67" s="16"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+    </row>
+    <row r="68" ht="25" customHeight="1" spans="1:13">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -2351,13 +2427,14 @@
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="G68" s="16"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-    </row>
-    <row r="69" ht="25" customHeight="1" spans="1:12">
+      <c r="H68" s="16"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+    </row>
+    <row r="69" ht="25" customHeight="1" spans="1:13">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -2365,13 +2442,14 @@
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="16"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-    </row>
-    <row r="70" ht="25" customHeight="1" spans="1:12">
+      <c r="H69" s="16"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+    </row>
+    <row r="70" ht="25" customHeight="1" spans="1:13">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -2379,13 +2457,14 @@
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="16"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-    </row>
-    <row r="71" ht="25" customHeight="1" spans="1:12">
+      <c r="H70" s="16"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+    </row>
+    <row r="71" ht="25" customHeight="1" spans="1:13">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -2393,13 +2472,14 @@
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-    </row>
-    <row r="72" ht="25" customHeight="1" spans="1:12">
+      <c r="H71" s="16"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+    </row>
+    <row r="72" ht="25" customHeight="1" spans="1:13">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -2407,13 +2487,14 @@
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="G72" s="16"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-    </row>
-    <row r="73" ht="25" customHeight="1" spans="1:12">
+      <c r="H72" s="16"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="20"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+    </row>
+    <row r="73" ht="25" customHeight="1" spans="1:13">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -2421,13 +2502,14 @@
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
       <c r="G73" s="16"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-    </row>
-    <row r="74" ht="25" customHeight="1" spans="1:12">
+      <c r="H73" s="16"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+    </row>
+    <row r="74" ht="25" customHeight="1" spans="1:13">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -2435,13 +2517,14 @@
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="16"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-    </row>
-    <row r="75" ht="25" customHeight="1" spans="1:12">
+      <c r="H74" s="16"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+    </row>
+    <row r="75" ht="25" customHeight="1" spans="1:13">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -2449,13 +2532,14 @@
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="16"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-    </row>
-    <row r="76" ht="25" customHeight="1" spans="1:12">
+      <c r="H75" s="16"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="20"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+    </row>
+    <row r="76" ht="25" customHeight="1" spans="1:13">
       <c r="A76" s="15"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -2463,13 +2547,14 @@
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
       <c r="G76" s="16"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-    </row>
-    <row r="77" ht="25" customHeight="1" spans="1:12">
+      <c r="H76" s="16"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="20"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+    </row>
+    <row r="77" ht="25" customHeight="1" spans="1:13">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -2477,13 +2562,14 @@
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
       <c r="G77" s="16"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-    </row>
-    <row r="78" ht="25" customHeight="1" spans="1:12">
+      <c r="H77" s="16"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="20"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+    </row>
+    <row r="78" ht="25" customHeight="1" spans="1:13">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -2491,13 +2577,14 @@
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
       <c r="G78" s="16"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-    </row>
-    <row r="79" ht="25" customHeight="1" spans="1:12">
+      <c r="H78" s="16"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="20"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+    </row>
+    <row r="79" ht="25" customHeight="1" spans="1:13">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -2505,13 +2592,14 @@
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="16"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-    </row>
-    <row r="80" ht="24" customHeight="1" spans="1:12">
+      <c r="H79" s="16"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="20"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+    </row>
+    <row r="80" ht="24" customHeight="1" spans="1:13">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -2519,13 +2607,14 @@
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="16"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-    </row>
-    <row r="81" ht="24" customHeight="1" spans="1:12">
+      <c r="H80" s="16"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+    </row>
+    <row r="81" ht="24" customHeight="1" spans="1:13">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -2533,13 +2622,14 @@
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="16"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-    </row>
-    <row r="82" ht="24" customHeight="1" spans="1:12">
+      <c r="H81" s="16"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+    </row>
+    <row r="82" ht="24" customHeight="1" spans="1:13">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -2547,13 +2637,14 @@
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="16"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-    </row>
-    <row r="83" ht="24" customHeight="1" spans="1:12">
+      <c r="H82" s="16"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="20"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+    </row>
+    <row r="83" ht="24" customHeight="1" spans="1:13">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -2561,13 +2652,14 @@
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="16"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-    </row>
-    <row r="84" ht="24" customHeight="1" spans="1:12">
+      <c r="H83" s="16"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+    </row>
+    <row r="84" ht="24" customHeight="1" spans="1:13">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -2575,13 +2667,14 @@
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="16"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-    </row>
-    <row r="85" ht="24" customHeight="1" spans="1:12">
+      <c r="H84" s="16"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="20"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+    </row>
+    <row r="85" ht="24" customHeight="1" spans="1:13">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -2589,16 +2682,17 @@
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="16"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <pageMargins left="0.708661417322835" right="0.708661417322835" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait"/>
